--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample02-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample02-from-config-file.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Invoice'!$A$1:$K$1</definedName>
@@ -1477,17 +1478,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.39577102661133" customWidth="1"/>
-    <col min="2" max="2" width="10.8190710885184" customWidth="1"/>
-    <col min="3" max="3" width="21.1530857086182" customWidth="1"/>
-    <col min="4" max="4" width="17.7731246948242" customWidth="1"/>
-    <col min="5" max="5" width="26.5398646763393" customWidth="1"/>
-    <col min="6" max="6" width="36.7100655691964" customWidth="1"/>
-    <col min="7" max="7" width="18.1758411952427" customWidth="1"/>
-    <col min="8" max="8" width="8.32992172241211" customWidth="1"/>
-    <col min="9" max="9" width="14.2519204275949" customWidth="1"/>
-    <col min="10" max="10" width="14.2115238734654" customWidth="1"/>
-    <col min="11" max="11" width="8.23375374930245" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="5.39577102661133" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="10.8190710885184" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="21.1530857086182" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="17.7731246948242" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="26.5398646763393" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="36.7100655691964" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="18.1758411952427" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="8.32992172241211" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="14.2519204275949" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="14.2115238734654" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="8.23375374930245" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -15951,4 +15952,15 @@
   <pageSetup paperSize="8" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample02-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/ExportEngine/sample02-from-config-file.xlsx
@@ -1380,7 +1380,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1433,12 +1433,6 @@
     <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" xfId="17" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="6" applyFill="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1477,17 +1471,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.39577102661133" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="10.8190710885184" customWidth="1"/>
-    <col min="3" max="3" width="21.1530857086182" customWidth="1"/>
+    <col min="3" max="3" width="20.0285186767578" customWidth="1"/>
     <col min="4" max="4" width="17.7731246948242" customWidth="1"/>
     <col min="5" max="5" width="26.5398646763393" customWidth="1"/>
     <col min="6" max="6" width="36.7100655691964" customWidth="1"/>
     <col min="7" max="7" width="18.1758411952427" customWidth="1"/>
-    <col min="8" max="8" width="8.32992172241211" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="14.2519204275949" customWidth="1"/>
     <col min="10" max="10" width="14.2115238734654" customWidth="1"/>
-    <col min="11" max="11" width="8.23375374930245" customWidth="1"/>
+    <col min="11" max="11" width="9.59976305280413" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1532,7 +1526,7 @@
       <c r="B2" s="12">
         <v>40248</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -1567,7 +1561,7 @@
       <c r="B3" s="13">
         <v>40342</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1602,7 +1596,7 @@
       <c r="B4" s="12">
         <v>40436</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1637,7 +1631,7 @@
       <c r="B5" s="13">
         <v>40669</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1672,7 +1666,7 @@
       <c r="B6" s="12">
         <v>41209</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -1707,7 +1701,7 @@
       <c r="B7" s="13">
         <v>41250</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1742,7 +1736,7 @@
       <c r="B8" s="12">
         <v>41493</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1767,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="6">
-        <v>8.90999984741211</v>
+        <v>-8.90999984741211</v>
       </c>
     </row>
     <row r="9">
@@ -1777,7 +1771,7 @@
       <c r="B9" s="13">
         <v>39814</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -1812,7 +1806,7 @@
       <c r="B10" s="12">
         <v>39855</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1847,7 +1841,7 @@
       <c r="B11" s="13">
         <v>40098</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -1882,7 +1876,7 @@
       <c r="B12" s="12">
         <v>40682</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="10" t="s">
@@ -1917,7 +1911,7 @@
       <c r="B13" s="13">
         <v>40776</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1952,7 +1946,7 @@
       <c r="B14" s="12">
         <v>40870</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1987,7 +1981,7 @@
       <c r="B15" s="13">
         <v>41103</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -2012,7 +2006,7 @@
         <v>26</v>
       </c>
       <c r="K15" s="7">
-        <v>0.99000000953674316</v>
+        <v>-0.99000000953674316</v>
       </c>
     </row>
     <row r="16">
@@ -2022,7 +2016,7 @@
       <c r="B16" s="12">
         <v>40248</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -2057,7 +2051,7 @@
       <c r="B17" s="13">
         <v>40289</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -2092,7 +2086,7 @@
       <c r="B18" s="12">
         <v>40532</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -2117,7 +2111,7 @@
         <v>34</v>
       </c>
       <c r="K18" s="6">
-        <v>8.90999984741211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2127,7 +2121,7 @@
       <c r="B19" s="13">
         <v>41116</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -2162,7 +2156,7 @@
       <c r="B20" s="12">
         <v>41210</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="10" t="s">
@@ -2197,7 +2191,7 @@
       <c r="B21" s="13">
         <v>41304</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -2232,7 +2226,7 @@
       <c r="B22" s="12">
         <v>41537</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -2267,7 +2261,7 @@
       <c r="B23" s="13">
         <v>39815</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -2302,7 +2296,7 @@
       <c r="B24" s="12">
         <v>39909</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="10" t="s">
@@ -2337,7 +2331,7 @@
       <c r="B25" s="13">
         <v>40142</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -2372,7 +2366,7 @@
       <c r="B26" s="12">
         <v>40682</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="10" t="s">
@@ -2407,7 +2401,7 @@
       <c r="B27" s="13">
         <v>40723</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -2442,7 +2436,7 @@
       <c r="B28" s="12">
         <v>40966</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2477,7 +2471,7 @@
       <c r="B29" s="13">
         <v>41550</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="11" t="s">
@@ -2512,7 +2506,7 @@
       <c r="B30" s="12">
         <v>40155</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -2547,7 +2541,7 @@
       <c r="B31" s="13">
         <v>40249</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -2582,7 +2576,7 @@
       <c r="B32" s="12">
         <v>40343</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -2617,7 +2611,7 @@
       <c r="B33" s="13">
         <v>40576</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -2642,7 +2636,7 @@
         <v>48</v>
       </c>
       <c r="K33" s="7">
-        <v>0.99000000953674316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2652,7 +2646,7 @@
       <c r="B34" s="12">
         <v>41116</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="10" t="s">
@@ -2687,7 +2681,7 @@
       <c r="B35" s="13">
         <v>41157</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -2722,7 +2716,7 @@
       <c r="B36" s="12">
         <v>41400</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -2757,7 +2751,7 @@
       <c r="B37" s="13">
         <v>40005</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -2792,7 +2786,7 @@
       <c r="B38" s="12">
         <v>40589</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="10" t="s">
@@ -2827,7 +2821,7 @@
       <c r="B39" s="13">
         <v>40683</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -2862,7 +2856,7 @@
       <c r="B40" s="12">
         <v>40777</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="10" t="s">
@@ -2897,7 +2891,7 @@
       <c r="B41" s="13">
         <v>41010</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -2932,7 +2926,7 @@
       <c r="B42" s="12">
         <v>41550</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -2967,7 +2961,7 @@
       <c r="B43" s="13">
         <v>41591</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="11" t="s">
@@ -3002,7 +2996,7 @@
       <c r="B44" s="12">
         <v>40155</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="10" t="s">
@@ -3037,7 +3031,7 @@
       <c r="B45" s="13">
         <v>40196</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -3072,7 +3066,7 @@
       <c r="B46" s="12">
         <v>40439</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D46" s="10" t="s">
@@ -3107,7 +3101,7 @@
       <c r="B47" s="13">
         <v>41023</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -3132,7 +3126,7 @@
         <v>60</v>
       </c>
       <c r="K47" s="7">
-        <v>1.9800000190734863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3142,7 +3136,7 @@
       <c r="B48" s="12">
         <v>41117</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -3177,7 +3171,7 @@
       <c r="B49" s="13">
         <v>41211</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -3212,7 +3206,7 @@
       <c r="B50" s="12">
         <v>41444</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D50" s="10" t="s">
@@ -3247,7 +3241,7 @@
       <c r="B51" s="13">
         <v>39816</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="11" t="s">
@@ -3282,7 +3276,7 @@
       <c r="B52" s="12">
         <v>40049</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D52" s="10" t="s">
@@ -3317,7 +3311,7 @@
       <c r="B53" s="13">
         <v>40589</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="11" t="s">
@@ -3352,7 +3346,7 @@
       <c r="B54" s="12">
         <v>40630</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="10" t="s">
@@ -3387,7 +3381,7 @@
       <c r="B55" s="13">
         <v>40873</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -3422,7 +3416,7 @@
       <c r="B56" s="12">
         <v>41457</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D56" s="10" t="s">
@@ -3457,7 +3451,7 @@
       <c r="B57" s="13">
         <v>41551</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="11" t="s">
@@ -3492,7 +3486,7 @@
       <c r="B58" s="12">
         <v>40062</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D58" s="10" t="s">
@@ -3527,7 +3521,7 @@
       <c r="B59" s="13">
         <v>40156</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D59" s="11" t="s">
@@ -3562,7 +3556,7 @@
       <c r="B60" s="12">
         <v>40250</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D60" s="10" t="s">
@@ -3597,7 +3591,7 @@
       <c r="B61" s="13">
         <v>40483</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -3632,7 +3626,7 @@
       <c r="B62" s="12">
         <v>41023</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D62" s="10" t="s">
@@ -3667,7 +3661,7 @@
       <c r="B63" s="13">
         <v>41064</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -3702,7 +3696,7 @@
       <c r="B64" s="12">
         <v>41307</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D64" s="10" t="s">
@@ -3737,7 +3731,7 @@
       <c r="B65" s="13">
         <v>39912</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -3772,7 +3766,7 @@
       <c r="B66" s="12">
         <v>40496</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="16" t="s">
         <v>75</v>
       </c>
       <c r="D66" s="10" t="s">
@@ -3807,7 +3801,7 @@
       <c r="B67" s="13">
         <v>40590</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D67" s="11" t="s">
@@ -3842,7 +3836,7 @@
       <c r="B68" s="12">
         <v>40684</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="16" t="s">
         <v>75</v>
       </c>
       <c r="D68" s="10" t="s">
@@ -3877,7 +3871,7 @@
       <c r="B69" s="13">
         <v>40917</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D69" s="11" t="s">
@@ -3912,7 +3906,7 @@
       <c r="B70" s="12">
         <v>41457</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="16" t="s">
         <v>75</v>
       </c>
       <c r="D70" s="10" t="s">
@@ -3947,7 +3941,7 @@
       <c r="B71" s="13">
         <v>41498</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D71" s="11" t="s">
@@ -3982,7 +3976,7 @@
       <c r="B72" s="12">
         <v>40062</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="16" t="s">
         <v>81</v>
       </c>
       <c r="D72" s="10" t="s">
@@ -4017,7 +4011,7 @@
       <c r="B73" s="13">
         <v>40103</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -4052,7 +4046,7 @@
       <c r="B74" s="12">
         <v>40346</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="16" t="s">
         <v>81</v>
       </c>
       <c r="D74" s="10" t="s">
@@ -4087,7 +4081,7 @@
       <c r="B75" s="13">
         <v>40930</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -4122,7 +4116,7 @@
       <c r="B76" s="12">
         <v>41024</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="16" t="s">
         <v>81</v>
       </c>
       <c r="D76" s="10" t="s">
@@ -4157,7 +4151,7 @@
       <c r="B77" s="13">
         <v>41118</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -4192,7 +4186,7 @@
       <c r="B78" s="12">
         <v>41351</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="16" t="s">
         <v>81</v>
       </c>
       <c r="D78" s="10" t="s">
@@ -4227,7 +4221,7 @@
       <c r="B79" s="13">
         <v>39956</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D79" s="11" t="s">
@@ -4252,7 +4246,7 @@
         <v>92</v>
       </c>
       <c r="K79" s="7">
-        <v>0.99000000953674316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4262,7 +4256,7 @@
       <c r="B80" s="12">
         <v>40496</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="16" t="s">
         <v>86</v>
       </c>
       <c r="D80" s="10" t="s">
@@ -4297,7 +4291,7 @@
       <c r="B81" s="13">
         <v>40537</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D81" s="11" t="s">
@@ -4332,7 +4326,7 @@
       <c r="B82" s="12">
         <v>40780</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="16" t="s">
         <v>86</v>
       </c>
       <c r="D82" s="10" t="s">
@@ -4367,7 +4361,7 @@
       <c r="B83" s="13">
         <v>41364</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D83" s="11" t="s">
@@ -4402,7 +4396,7 @@
       <c r="B84" s="12">
         <v>41458</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="16" t="s">
         <v>86</v>
       </c>
       <c r="D84" s="10" t="s">
@@ -4437,7 +4431,7 @@
       <c r="B85" s="13">
         <v>41552</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -4472,7 +4466,7 @@
       <c r="B86" s="12">
         <v>39969</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="16" t="s">
         <v>93</v>
       </c>
       <c r="D86" s="10" t="s">
@@ -4507,7 +4501,7 @@
       <c r="B87" s="13">
         <v>40063</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D87" s="11" t="s">
@@ -4542,7 +4536,7 @@
       <c r="B88" s="12">
         <v>40157</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="16" t="s">
         <v>93</v>
       </c>
       <c r="D88" s="10" t="s">
@@ -4577,7 +4571,7 @@
       <c r="B89" s="13">
         <v>40390</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D89" s="11" t="s">
@@ -4612,7 +4606,7 @@
       <c r="B90" s="12">
         <v>40930</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="16" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="10" t="s">
@@ -4647,7 +4641,7 @@
       <c r="B91" s="13">
         <v>40971</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="17" t="s">
         <v>93</v>
       </c>
       <c r="D91" s="11" t="s">
@@ -4682,7 +4676,7 @@
       <c r="B92" s="12">
         <v>41214</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="16" t="s">
         <v>93</v>
       </c>
       <c r="D92" s="10" t="s">
@@ -4717,7 +4711,7 @@
       <c r="B93" s="13">
         <v>39819</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D93" s="11" t="s">
@@ -4752,7 +4746,7 @@
       <c r="B94" s="12">
         <v>40403</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="16" t="s">
         <v>100</v>
       </c>
       <c r="D94" s="10" t="s">
@@ -4787,7 +4781,7 @@
       <c r="B95" s="13">
         <v>40497</v>
       </c>
-      <c r="C95" s="19" t="s">
+      <c r="C95" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D95" s="11" t="s">
@@ -4822,7 +4816,7 @@
       <c r="B96" s="12">
         <v>40591</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="16" t="s">
         <v>100</v>
       </c>
       <c r="D96" s="10" t="s">
@@ -4857,7 +4851,7 @@
       <c r="B97" s="13">
         <v>40824</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="C97" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D97" s="11" t="s">
@@ -4892,7 +4886,7 @@
       <c r="B98" s="12">
         <v>41364</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="16" t="s">
         <v>100</v>
       </c>
       <c r="D98" s="10" t="s">
@@ -4927,7 +4921,7 @@
       <c r="B99" s="13">
         <v>41405</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="17" t="s">
         <v>100</v>
       </c>
       <c r="D99" s="11" t="s">
@@ -4962,7 +4956,7 @@
       <c r="B100" s="12">
         <v>39969</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D100" s="10" t="s">
@@ -4997,7 +4991,7 @@
       <c r="B101" s="13">
         <v>40010</v>
       </c>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="17" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="11" t="s">
@@ -5032,7 +5026,7 @@
       <c r="B102" s="12">
         <v>40253</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D102" s="10" t="s">
@@ -5067,7 +5061,7 @@
       <c r="B103" s="13">
         <v>40837</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="17" t="s">
         <v>107</v>
       </c>
       <c r="D103" s="11" t="s">
@@ -5092,7 +5086,7 @@
         <v>113</v>
       </c>
       <c r="K103" s="7">
-        <v>1.9800000190734863</v>
+        <v>-1.9800000190734863</v>
       </c>
     </row>
     <row r="104">
@@ -5102,7 +5096,7 @@
       <c r="B104" s="12">
         <v>40931</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D104" s="10" t="s">
@@ -5137,7 +5131,7 @@
       <c r="B105" s="13">
         <v>41025</v>
       </c>
-      <c r="C105" s="19" t="s">
+      <c r="C105" s="17" t="s">
         <v>107</v>
       </c>
       <c r="D105" s="11" t="s">
@@ -5172,7 +5166,7 @@
       <c r="B106" s="12">
         <v>41258</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="16" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="10" t="s">
@@ -5197,7 +5191,7 @@
         <v>113</v>
       </c>
       <c r="K106" s="6">
-        <v>0.99000000953674316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -5207,7 +5201,7 @@
       <c r="B107" s="13">
         <v>39863</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C107" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D107" s="11" t="s">
@@ -5242,7 +5236,7 @@
       <c r="B108" s="12">
         <v>40403</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D108" s="10" t="s">
@@ -5277,7 +5271,7 @@
       <c r="B109" s="13">
         <v>40444</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D109" s="11" t="s">
@@ -5312,7 +5306,7 @@
       <c r="B110" s="12">
         <v>40687</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D110" s="10" t="s">
@@ -5347,7 +5341,7 @@
       <c r="B111" s="13">
         <v>41271</v>
       </c>
-      <c r="C111" s="19" t="s">
+      <c r="C111" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D111" s="11" t="s">
@@ -5382,7 +5376,7 @@
       <c r="B112" s="12">
         <v>41365</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="16" t="s">
         <v>114</v>
       </c>
       <c r="D112" s="10" t="s">
@@ -5417,7 +5411,7 @@
       <c r="B113" s="13">
         <v>41459</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="C113" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D113" s="11" t="s">
@@ -5452,7 +5446,7 @@
       <c r="B114" s="12">
         <v>39876</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D114" s="10" t="s">
@@ -5487,7 +5481,7 @@
       <c r="B115" s="13">
         <v>39970</v>
       </c>
-      <c r="C115" s="19" t="s">
+      <c r="C115" s="17" t="s">
         <v>122</v>
       </c>
       <c r="D115" s="11" t="s">
@@ -5522,7 +5516,7 @@
       <c r="B116" s="12">
         <v>40064</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D116" s="10" t="s">
@@ -5557,7 +5551,7 @@
       <c r="B117" s="13">
         <v>40297</v>
       </c>
-      <c r="C117" s="19" t="s">
+      <c r="C117" s="17" t="s">
         <v>122</v>
       </c>
       <c r="D117" s="11" t="s">
@@ -5592,7 +5586,7 @@
       <c r="B118" s="12">
         <v>40837</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D118" s="10" t="s">
@@ -5627,7 +5621,7 @@
       <c r="B119" s="13">
         <v>40878</v>
       </c>
-      <c r="C119" s="19" t="s">
+      <c r="C119" s="17" t="s">
         <v>122</v>
       </c>
       <c r="D119" s="11" t="s">
@@ -5662,7 +5656,7 @@
       <c r="B120" s="12">
         <v>41121</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D120" s="10" t="s">
@@ -5697,7 +5691,7 @@
       <c r="B121" s="13">
         <v>40310</v>
       </c>
-      <c r="C121" s="19" t="s">
+      <c r="C121" s="17" t="s">
         <v>129</v>
       </c>
       <c r="D121" s="11" t="s">
@@ -5732,7 +5726,7 @@
       <c r="B122" s="12">
         <v>40404</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D122" s="10" t="s">
@@ -5767,7 +5761,7 @@
       <c r="B123" s="13">
         <v>40498</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="17" t="s">
         <v>129</v>
       </c>
       <c r="D123" s="11" t="s">
@@ -5802,7 +5796,7 @@
       <c r="B124" s="12">
         <v>40731</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D124" s="10" t="s">
@@ -5837,7 +5831,7 @@
       <c r="B125" s="13">
         <v>41271</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="17" t="s">
         <v>129</v>
       </c>
       <c r="D125" s="11" t="s">
@@ -5872,7 +5866,7 @@
       <c r="B126" s="12">
         <v>41312</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D126" s="10" t="s">
@@ -5907,7 +5901,7 @@
       <c r="B127" s="13">
         <v>41555</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="17" t="s">
         <v>129</v>
       </c>
       <c r="D127" s="11" t="s">
@@ -5942,7 +5936,7 @@
       <c r="B128" s="12">
         <v>39876</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="16" t="s">
         <v>136</v>
       </c>
       <c r="D128" s="10" t="s">
@@ -5977,7 +5971,7 @@
       <c r="B129" s="13">
         <v>39917</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="17" t="s">
         <v>136</v>
       </c>
       <c r="D129" s="11" t="s">
@@ -6012,7 +6006,7 @@
       <c r="B130" s="12">
         <v>40160</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="16" t="s">
         <v>136</v>
       </c>
       <c r="D130" s="10" t="s">
@@ -6047,7 +6041,7 @@
       <c r="B131" s="13">
         <v>40744</v>
       </c>
-      <c r="C131" s="19" t="s">
+      <c r="C131" s="17" t="s">
         <v>136</v>
       </c>
       <c r="D131" s="11" t="s">
@@ -6082,7 +6076,7 @@
       <c r="B132" s="12">
         <v>40838</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="16" t="s">
         <v>136</v>
       </c>
       <c r="D132" s="10" t="s">
@@ -6117,7 +6111,7 @@
       <c r="B133" s="13">
         <v>40932</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C133" s="17" t="s">
         <v>136</v>
       </c>
       <c r="D133" s="11" t="s">
@@ -6152,7 +6146,7 @@
       <c r="B134" s="12">
         <v>41165</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="16" t="s">
         <v>136</v>
       </c>
       <c r="D134" s="10" t="s">
@@ -6187,7 +6181,7 @@
       <c r="B135" s="13">
         <v>40310</v>
       </c>
-      <c r="C135" s="19" t="s">
+      <c r="C135" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D135" s="11" t="s">
@@ -6222,7 +6216,7 @@
       <c r="B136" s="12">
         <v>40351</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="16" t="s">
         <v>142</v>
       </c>
       <c r="D136" s="10" t="s">
@@ -6257,7 +6251,7 @@
       <c r="B137" s="13">
         <v>40594</v>
       </c>
-      <c r="C137" s="19" t="s">
+      <c r="C137" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D137" s="11" t="s">
@@ -6292,7 +6286,7 @@
       <c r="B138" s="12">
         <v>41178</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="16" t="s">
         <v>142</v>
       </c>
       <c r="D138" s="10" t="s">
@@ -6327,7 +6321,7 @@
       <c r="B139" s="13">
         <v>41272</v>
       </c>
-      <c r="C139" s="19" t="s">
+      <c r="C139" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D139" s="11" t="s">
@@ -6362,7 +6356,7 @@
       <c r="B140" s="12">
         <v>41366</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="16" t="s">
         <v>142</v>
       </c>
       <c r="D140" s="10" t="s">
@@ -6397,7 +6391,7 @@
       <c r="B141" s="13">
         <v>41599</v>
       </c>
-      <c r="C141" s="19" t="s">
+      <c r="C141" s="17" t="s">
         <v>142</v>
       </c>
       <c r="D141" s="11" t="s">
@@ -6432,7 +6426,7 @@
       <c r="B142" s="12">
         <v>39877</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="16" t="s">
         <v>147</v>
       </c>
       <c r="D142" s="10" t="s">
@@ -6467,7 +6461,7 @@
       <c r="B143" s="13">
         <v>39971</v>
       </c>
-      <c r="C143" s="19" t="s">
+      <c r="C143" s="17" t="s">
         <v>147</v>
       </c>
       <c r="D143" s="11" t="s">
@@ -6502,7 +6496,7 @@
       <c r="B144" s="12">
         <v>40204</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="16" t="s">
         <v>147</v>
       </c>
       <c r="D144" s="10" t="s">
@@ -6537,7 +6531,7 @@
       <c r="B145" s="13">
         <v>40744</v>
       </c>
-      <c r="C145" s="19" t="s">
+      <c r="C145" s="17" t="s">
         <v>147</v>
       </c>
       <c r="D145" s="11" t="s">
@@ -6572,7 +6566,7 @@
       <c r="B146" s="12">
         <v>40785</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="16" t="s">
         <v>147</v>
       </c>
       <c r="D146" s="10" t="s">
@@ -6607,7 +6601,7 @@
       <c r="B147" s="13">
         <v>41028</v>
       </c>
-      <c r="C147" s="19" t="s">
+      <c r="C147" s="17" t="s">
         <v>147</v>
       </c>
       <c r="D147" s="11" t="s">
@@ -6642,7 +6636,7 @@
       <c r="B148" s="12">
         <v>41612</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="16" t="s">
         <v>147</v>
       </c>
       <c r="D148" s="10" t="s">
@@ -6677,7 +6671,7 @@
       <c r="B149" s="13">
         <v>40217</v>
       </c>
-      <c r="C149" s="19" t="s">
+      <c r="C149" s="17" t="s">
         <v>154</v>
       </c>
       <c r="D149" s="11" t="s">
@@ -6712,7 +6706,7 @@
       <c r="B150" s="12">
         <v>40311</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="16" t="s">
         <v>154</v>
       </c>
       <c r="D150" s="10" t="s">
@@ -6747,7 +6741,7 @@
       <c r="B151" s="13">
         <v>40405</v>
       </c>
-      <c r="C151" s="19" t="s">
+      <c r="C151" s="17" t="s">
         <v>154</v>
       </c>
       <c r="D151" s="11" t="s">
@@ -6782,7 +6776,7 @@
       <c r="B152" s="12">
         <v>40638</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="16" t="s">
         <v>154</v>
       </c>
       <c r="D152" s="10" t="s">
@@ -6817,7 +6811,7 @@
       <c r="B153" s="13">
         <v>41178</v>
       </c>
-      <c r="C153" s="19" t="s">
+      <c r="C153" s="17" t="s">
         <v>154</v>
       </c>
       <c r="D153" s="11" t="s">
@@ -6852,7 +6846,7 @@
       <c r="B154" s="12">
         <v>41219</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="16" t="s">
         <v>154</v>
       </c>
       <c r="D154" s="10" t="s">
@@ -6887,7 +6881,7 @@
       <c r="B155" s="13">
         <v>41462</v>
       </c>
-      <c r="C155" s="19" t="s">
+      <c r="C155" s="17" t="s">
         <v>154</v>
       </c>
       <c r="D155" s="11" t="s">
@@ -6922,7 +6916,7 @@
       <c r="B156" s="12">
         <v>39824</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="16" t="s">
         <v>161</v>
       </c>
       <c r="D156" s="10" t="s">
@@ -6957,7 +6951,7 @@
       <c r="B157" s="13">
         <v>40067</v>
       </c>
-      <c r="C157" s="19" t="s">
+      <c r="C157" s="17" t="s">
         <v>161</v>
       </c>
       <c r="D157" s="11" t="s">
@@ -6992,7 +6986,7 @@
       <c r="B158" s="12">
         <v>40651</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="16" t="s">
         <v>161</v>
       </c>
       <c r="D158" s="10" t="s">
@@ -7027,7 +7021,7 @@
       <c r="B159" s="13">
         <v>40745</v>
       </c>
-      <c r="C159" s="19" t="s">
+      <c r="C159" s="17" t="s">
         <v>161</v>
       </c>
       <c r="D159" s="11" t="s">
@@ -7062,7 +7056,7 @@
       <c r="B160" s="12">
         <v>40839</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="C160" s="16" t="s">
         <v>161</v>
       </c>
       <c r="D160" s="10" t="s">
@@ -7097,7 +7091,7 @@
       <c r="B161" s="13">
         <v>41072</v>
       </c>
-      <c r="C161" s="19" t="s">
+      <c r="C161" s="17" t="s">
         <v>161</v>
       </c>
       <c r="D161" s="11" t="s">
@@ -7132,7 +7126,7 @@
       <c r="B162" s="12">
         <v>41612</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="C162" s="16" t="s">
         <v>161</v>
       </c>
       <c r="D162" s="10" t="s">
@@ -7167,7 +7161,7 @@
       <c r="B163" s="13">
         <v>40217</v>
       </c>
-      <c r="C163" s="19" t="s">
+      <c r="C163" s="17" t="s">
         <v>168</v>
       </c>
       <c r="D163" s="11" t="s">
@@ -7202,7 +7196,7 @@
       <c r="B164" s="12">
         <v>40258</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C164" s="16" t="s">
         <v>168</v>
       </c>
       <c r="D164" s="10" t="s">
@@ -7237,7 +7231,7 @@
       <c r="B165" s="13">
         <v>40501</v>
       </c>
-      <c r="C165" s="19" t="s">
+      <c r="C165" s="17" t="s">
         <v>168</v>
       </c>
       <c r="D165" s="11" t="s">
@@ -7272,7 +7266,7 @@
       <c r="B166" s="12">
         <v>41085</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C166" s="16" t="s">
         <v>168</v>
       </c>
       <c r="D166" s="10" t="s">
@@ -7307,7 +7301,7 @@
       <c r="B167" s="13">
         <v>41179</v>
       </c>
-      <c r="C167" s="19" t="s">
+      <c r="C167" s="17" t="s">
         <v>168</v>
       </c>
       <c r="D167" s="11" t="s">
@@ -7342,7 +7336,7 @@
       <c r="B168" s="12">
         <v>41273</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C168" s="16" t="s">
         <v>168</v>
       </c>
       <c r="D168" s="10" t="s">
@@ -7377,7 +7371,7 @@
       <c r="B169" s="13">
         <v>41506</v>
       </c>
-      <c r="C169" s="19" t="s">
+      <c r="C169" s="17" t="s">
         <v>168</v>
       </c>
       <c r="D169" s="11" t="s">
@@ -7412,7 +7406,7 @@
       <c r="B170" s="12">
         <v>39878</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="16" t="s">
         <v>175</v>
       </c>
       <c r="D170" s="10" t="s">
@@ -7447,7 +7441,7 @@
       <c r="B171" s="13">
         <v>40111</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="17" t="s">
         <v>175</v>
       </c>
       <c r="D171" s="11" t="s">
@@ -7482,7 +7476,7 @@
       <c r="B172" s="12">
         <v>40651</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="16" t="s">
         <v>175</v>
       </c>
       <c r="D172" s="10" t="s">
@@ -7517,7 +7511,7 @@
       <c r="B173" s="13">
         <v>40692</v>
       </c>
-      <c r="C173" s="19" t="s">
+      <c r="C173" s="17" t="s">
         <v>175</v>
       </c>
       <c r="D173" s="11" t="s">
@@ -7552,7 +7546,7 @@
       <c r="B174" s="12">
         <v>40935</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="16" t="s">
         <v>175</v>
       </c>
       <c r="D174" s="10" t="s">
@@ -7587,7 +7581,7 @@
       <c r="B175" s="13">
         <v>41519</v>
       </c>
-      <c r="C175" s="19" t="s">
+      <c r="C175" s="17" t="s">
         <v>175</v>
       </c>
       <c r="D175" s="11" t="s">
@@ -7622,7 +7616,7 @@
       <c r="B176" s="12">
         <v>41613</v>
       </c>
-      <c r="C176" s="18" t="s">
+      <c r="C176" s="16" t="s">
         <v>175</v>
       </c>
       <c r="D176" s="10" t="s">
@@ -7657,7 +7651,7 @@
       <c r="B177" s="13">
         <v>40124</v>
       </c>
-      <c r="C177" s="19" t="s">
+      <c r="C177" s="17" t="s">
         <v>182</v>
       </c>
       <c r="D177" s="11" t="s">
@@ -7692,7 +7686,7 @@
       <c r="B178" s="12">
         <v>40218</v>
       </c>
-      <c r="C178" s="18" t="s">
+      <c r="C178" s="16" t="s">
         <v>182</v>
       </c>
       <c r="D178" s="10" t="s">
@@ -7727,7 +7721,7 @@
       <c r="B179" s="13">
         <v>40312</v>
       </c>
-      <c r="C179" s="19" t="s">
+      <c r="C179" s="17" t="s">
         <v>182</v>
       </c>
       <c r="D179" s="11" t="s">
@@ -7762,7 +7756,7 @@
       <c r="B180" s="12">
         <v>40545</v>
       </c>
-      <c r="C180" s="18" t="s">
+      <c r="C180" s="16" t="s">
         <v>182</v>
       </c>
       <c r="D180" s="10" t="s">
@@ -7797,7 +7791,7 @@
       <c r="B181" s="13">
         <v>41085</v>
       </c>
-      <c r="C181" s="19" t="s">
+      <c r="C181" s="17" t="s">
         <v>182</v>
       </c>
       <c r="D181" s="11" t="s">
@@ -7832,7 +7826,7 @@
       <c r="B182" s="12">
         <v>41126</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="16" t="s">
         <v>182</v>
       </c>
       <c r="D182" s="10" t="s">
@@ -7867,7 +7861,7 @@
       <c r="B183" s="13">
         <v>41369</v>
       </c>
-      <c r="C183" s="19" t="s">
+      <c r="C183" s="17" t="s">
         <v>182</v>
       </c>
       <c r="D183" s="11" t="s">
@@ -7902,7 +7896,7 @@
       <c r="B184" s="12">
         <v>39974</v>
       </c>
-      <c r="C184" s="18" t="s">
+      <c r="C184" s="16" t="s">
         <v>189</v>
       </c>
       <c r="D184" s="10" t="s">
@@ -7937,7 +7931,7 @@
       <c r="B185" s="13">
         <v>40558</v>
       </c>
-      <c r="C185" s="19" t="s">
+      <c r="C185" s="17" t="s">
         <v>189</v>
       </c>
       <c r="D185" s="11" t="s">
@@ -7972,7 +7966,7 @@
       <c r="B186" s="12">
         <v>40652</v>
       </c>
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="16" t="s">
         <v>189</v>
       </c>
       <c r="D186" s="10" t="s">
@@ -8007,7 +8001,7 @@
       <c r="B187" s="13">
         <v>40746</v>
       </c>
-      <c r="C187" s="19" t="s">
+      <c r="C187" s="17" t="s">
         <v>189</v>
       </c>
       <c r="D187" s="11" t="s">
@@ -8042,7 +8036,7 @@
       <c r="B188" s="12">
         <v>40979</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C188" s="16" t="s">
         <v>189</v>
       </c>
       <c r="D188" s="10" t="s">
@@ -8077,7 +8071,7 @@
       <c r="B189" s="13">
         <v>41519</v>
       </c>
-      <c r="C189" s="19" t="s">
+      <c r="C189" s="17" t="s">
         <v>189</v>
       </c>
       <c r="D189" s="11" t="s">
@@ -8112,7 +8106,7 @@
       <c r="B190" s="12">
         <v>41560</v>
       </c>
-      <c r="C190" s="18" t="s">
+      <c r="C190" s="16" t="s">
         <v>189</v>
       </c>
       <c r="D190" s="10" t="s">
@@ -8147,7 +8141,7 @@
       <c r="B191" s="13">
         <v>40124</v>
       </c>
-      <c r="C191" s="19" t="s">
+      <c r="C191" s="17" t="s">
         <v>196</v>
       </c>
       <c r="D191" s="11" t="s">
@@ -8182,7 +8176,7 @@
       <c r="B192" s="12">
         <v>40165</v>
       </c>
-      <c r="C192" s="18" t="s">
+      <c r="C192" s="16" t="s">
         <v>196</v>
       </c>
       <c r="D192" s="10" t="s">
@@ -8217,7 +8211,7 @@
       <c r="B193" s="13">
         <v>40408</v>
       </c>
-      <c r="C193" s="19" t="s">
+      <c r="C193" s="17" t="s">
         <v>196</v>
       </c>
       <c r="D193" s="11" t="s">
@@ -8252,7 +8246,7 @@
       <c r="B194" s="12">
         <v>40992</v>
       </c>
-      <c r="C194" s="18" t="s">
+      <c r="C194" s="16" t="s">
         <v>196</v>
       </c>
       <c r="D194" s="10" t="s">
@@ -8287,7 +8281,7 @@
       <c r="B195" s="13">
         <v>41086</v>
       </c>
-      <c r="C195" s="19" t="s">
+      <c r="C195" s="17" t="s">
         <v>196</v>
       </c>
       <c r="D195" s="11" t="s">
@@ -8322,7 +8316,7 @@
       <c r="B196" s="12">
         <v>41180</v>
       </c>
-      <c r="C196" s="18" t="s">
+      <c r="C196" s="16" t="s">
         <v>196</v>
       </c>
       <c r="D196" s="10" t="s">
@@ -8357,7 +8351,7 @@
       <c r="B197" s="13">
         <v>41413</v>
       </c>
-      <c r="C197" s="19" t="s">
+      <c r="C197" s="17" t="s">
         <v>196</v>
       </c>
       <c r="D197" s="11" t="s">
@@ -8392,7 +8386,7 @@
       <c r="B198" s="12">
         <v>40018</v>
       </c>
-      <c r="C198" s="18" t="s">
+      <c r="C198" s="16" t="s">
         <v>203</v>
       </c>
       <c r="D198" s="10" t="s">
@@ -8427,7 +8421,7 @@
       <c r="B199" s="13">
         <v>40558</v>
       </c>
-      <c r="C199" s="19" t="s">
+      <c r="C199" s="17" t="s">
         <v>203</v>
       </c>
       <c r="D199" s="11" t="s">
@@ -8462,7 +8456,7 @@
       <c r="B200" s="12">
         <v>40599</v>
       </c>
-      <c r="C200" s="18" t="s">
+      <c r="C200" s="16" t="s">
         <v>203</v>
       </c>
       <c r="D200" s="10" t="s">
@@ -8497,7 +8491,7 @@
       <c r="B201" s="13">
         <v>40842</v>
       </c>
-      <c r="C201" s="19" t="s">
+      <c r="C201" s="17" t="s">
         <v>203</v>
       </c>
       <c r="D201" s="11" t="s">
@@ -8532,7 +8526,7 @@
       <c r="B202" s="12">
         <v>41426</v>
       </c>
-      <c r="C202" s="18" t="s">
+      <c r="C202" s="16" t="s">
         <v>203</v>
       </c>
       <c r="D202" s="10" t="s">
@@ -8567,7 +8561,7 @@
       <c r="B203" s="13">
         <v>41520</v>
       </c>
-      <c r="C203" s="19" t="s">
+      <c r="C203" s="17" t="s">
         <v>203</v>
       </c>
       <c r="D203" s="11" t="s">
@@ -8602,7 +8596,7 @@
       <c r="B204" s="12">
         <v>41614</v>
       </c>
-      <c r="C204" s="18" t="s">
+      <c r="C204" s="16" t="s">
         <v>203</v>
       </c>
       <c r="D204" s="10" t="s">
@@ -8637,7 +8631,7 @@
       <c r="B205" s="13">
         <v>40031</v>
       </c>
-      <c r="C205" s="19" t="s">
+      <c r="C205" s="17" t="s">
         <v>210</v>
       </c>
       <c r="D205" s="11" t="s">
@@ -8672,7 +8666,7 @@
       <c r="B206" s="12">
         <v>40125</v>
       </c>
-      <c r="C206" s="18" t="s">
+      <c r="C206" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D206" s="10" t="s">
@@ -8707,7 +8701,7 @@
       <c r="B207" s="13">
         <v>40219</v>
       </c>
-      <c r="C207" s="19" t="s">
+      <c r="C207" s="17" t="s">
         <v>210</v>
       </c>
       <c r="D207" s="11" t="s">
@@ -8742,7 +8736,7 @@
       <c r="B208" s="12">
         <v>40452</v>
       </c>
-      <c r="C208" s="18" t="s">
+      <c r="C208" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D208" s="10" t="s">
@@ -8777,7 +8771,7 @@
       <c r="B209" s="13">
         <v>40992</v>
       </c>
-      <c r="C209" s="19" t="s">
+      <c r="C209" s="17" t="s">
         <v>210</v>
       </c>
       <c r="D209" s="11" t="s">
@@ -8812,7 +8806,7 @@
       <c r="B210" s="12">
         <v>41033</v>
       </c>
-      <c r="C210" s="18" t="s">
+      <c r="C210" s="16" t="s">
         <v>210</v>
       </c>
       <c r="D210" s="10" t="s">
@@ -8847,7 +8841,7 @@
       <c r="B211" s="13">
         <v>41276</v>
       </c>
-      <c r="C211" s="19" t="s">
+      <c r="C211" s="17" t="s">
         <v>210</v>
       </c>
       <c r="D211" s="11" t="s">
@@ -8882,7 +8876,7 @@
       <c r="B212" s="12">
         <v>39881</v>
       </c>
-      <c r="C212" s="18" t="s">
+      <c r="C212" s="16" t="s">
         <v>216</v>
       </c>
       <c r="D212" s="10" t="s">
@@ -8917,7 +8911,7 @@
       <c r="B213" s="13">
         <v>40465</v>
       </c>
-      <c r="C213" s="19" t="s">
+      <c r="C213" s="17" t="s">
         <v>216</v>
       </c>
       <c r="D213" s="11" t="s">
@@ -8952,7 +8946,7 @@
       <c r="B214" s="12">
         <v>40559</v>
       </c>
-      <c r="C214" s="18" t="s">
+      <c r="C214" s="16" t="s">
         <v>216</v>
       </c>
       <c r="D214" s="10" t="s">
@@ -8987,7 +8981,7 @@
       <c r="B215" s="13">
         <v>40653</v>
       </c>
-      <c r="C215" s="19" t="s">
+      <c r="C215" s="17" t="s">
         <v>216</v>
       </c>
       <c r="D215" s="11" t="s">
@@ -9022,7 +9016,7 @@
       <c r="B216" s="12">
         <v>40886</v>
       </c>
-      <c r="C216" s="18" t="s">
+      <c r="C216" s="16" t="s">
         <v>216</v>
       </c>
       <c r="D216" s="10" t="s">
@@ -9057,7 +9051,7 @@
       <c r="B217" s="13">
         <v>41426</v>
       </c>
-      <c r="C217" s="19" t="s">
+      <c r="C217" s="17" t="s">
         <v>216</v>
       </c>
       <c r="D217" s="11" t="s">
@@ -9092,7 +9086,7 @@
       <c r="B218" s="12">
         <v>41467</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C218" s="16" t="s">
         <v>216</v>
       </c>
       <c r="D218" s="10" t="s">
@@ -9127,7 +9121,7 @@
       <c r="B219" s="13">
         <v>40031</v>
       </c>
-      <c r="C219" s="19" t="s">
+      <c r="C219" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D219" s="11" t="s">
@@ -9162,7 +9156,7 @@
       <c r="B220" s="12">
         <v>40072</v>
       </c>
-      <c r="C220" s="18" t="s">
+      <c r="C220" s="16" t="s">
         <v>223</v>
       </c>
       <c r="D220" s="10" t="s">
@@ -9197,7 +9191,7 @@
       <c r="B221" s="13">
         <v>40315</v>
       </c>
-      <c r="C221" s="19" t="s">
+      <c r="C221" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D221" s="11" t="s">
@@ -9232,7 +9226,7 @@
       <c r="B222" s="12">
         <v>40899</v>
       </c>
-      <c r="C222" s="18" t="s">
+      <c r="C222" s="16" t="s">
         <v>223</v>
       </c>
       <c r="D222" s="10" t="s">
@@ -9267,7 +9261,7 @@
       <c r="B223" s="13">
         <v>40993</v>
       </c>
-      <c r="C223" s="19" t="s">
+      <c r="C223" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D223" s="11" t="s">
@@ -9302,7 +9296,7 @@
       <c r="B224" s="12">
         <v>41087</v>
       </c>
-      <c r="C224" s="18" t="s">
+      <c r="C224" s="16" t="s">
         <v>223</v>
       </c>
       <c r="D224" s="10" t="s">
@@ -9337,7 +9331,7 @@
       <c r="B225" s="13">
         <v>41320</v>
       </c>
-      <c r="C225" s="19" t="s">
+      <c r="C225" s="17" t="s">
         <v>223</v>
       </c>
       <c r="D225" s="11" t="s">
@@ -9372,7 +9366,7 @@
       <c r="B226" s="12">
         <v>39925</v>
       </c>
-      <c r="C226" s="18" t="s">
+      <c r="C226" s="16" t="s">
         <v>230</v>
       </c>
       <c r="D226" s="10" t="s">
@@ -9407,7 +9401,7 @@
       <c r="B227" s="13">
         <v>40465</v>
       </c>
-      <c r="C227" s="19" t="s">
+      <c r="C227" s="17" t="s">
         <v>230</v>
       </c>
       <c r="D227" s="11" t="s">
@@ -9442,7 +9436,7 @@
       <c r="B228" s="12">
         <v>40506</v>
       </c>
-      <c r="C228" s="18" t="s">
+      <c r="C228" s="16" t="s">
         <v>230</v>
       </c>
       <c r="D228" s="10" t="s">
@@ -9477,7 +9471,7 @@
       <c r="B229" s="13">
         <v>40749</v>
       </c>
-      <c r="C229" s="19" t="s">
+      <c r="C229" s="17" t="s">
         <v>230</v>
       </c>
       <c r="D229" s="11" t="s">
@@ -9512,7 +9506,7 @@
       <c r="B230" s="12">
         <v>41333</v>
       </c>
-      <c r="C230" s="18" t="s">
+      <c r="C230" s="16" t="s">
         <v>230</v>
       </c>
       <c r="D230" s="10" t="s">
@@ -9547,7 +9541,7 @@
       <c r="B231" s="13">
         <v>41427</v>
       </c>
-      <c r="C231" s="19" t="s">
+      <c r="C231" s="17" t="s">
         <v>230</v>
       </c>
       <c r="D231" s="11" t="s">
@@ -9582,7 +9576,7 @@
       <c r="B232" s="12">
         <v>41521</v>
       </c>
-      <c r="C232" s="18" t="s">
+      <c r="C232" s="16" t="s">
         <v>230</v>
       </c>
       <c r="D232" s="10" t="s">
@@ -9617,7 +9611,7 @@
       <c r="B233" s="13">
         <v>39938</v>
       </c>
-      <c r="C233" s="19" t="s">
+      <c r="C233" s="17" t="s">
         <v>237</v>
       </c>
       <c r="D233" s="11" t="s">
@@ -9652,7 +9646,7 @@
       <c r="B234" s="12">
         <v>40032</v>
       </c>
-      <c r="C234" s="18" t="s">
+      <c r="C234" s="16" t="s">
         <v>237</v>
       </c>
       <c r="D234" s="10" t="s">
@@ -9687,7 +9681,7 @@
       <c r="B235" s="13">
         <v>40126</v>
       </c>
-      <c r="C235" s="19" t="s">
+      <c r="C235" s="17" t="s">
         <v>237</v>
       </c>
       <c r="D235" s="11" t="s">
@@ -9722,7 +9716,7 @@
       <c r="B236" s="12">
         <v>40359</v>
       </c>
-      <c r="C236" s="18" t="s">
+      <c r="C236" s="16" t="s">
         <v>237</v>
       </c>
       <c r="D236" s="10" t="s">
@@ -9757,7 +9751,7 @@
       <c r="B237" s="13">
         <v>40899</v>
       </c>
-      <c r="C237" s="19" t="s">
+      <c r="C237" s="17" t="s">
         <v>237</v>
       </c>
       <c r="D237" s="11" t="s">
@@ -9792,7 +9786,7 @@
       <c r="B238" s="12">
         <v>40940</v>
       </c>
-      <c r="C238" s="18" t="s">
+      <c r="C238" s="16" t="s">
         <v>237</v>
       </c>
       <c r="D238" s="10" t="s">
@@ -9827,7 +9821,7 @@
       <c r="B239" s="13">
         <v>41183</v>
       </c>
-      <c r="C239" s="19" t="s">
+      <c r="C239" s="17" t="s">
         <v>237</v>
       </c>
       <c r="D239" s="11" t="s">
@@ -9862,7 +9856,7 @@
       <c r="B240" s="12">
         <v>40372</v>
       </c>
-      <c r="C240" s="18" t="s">
+      <c r="C240" s="16" t="s">
         <v>243</v>
       </c>
       <c r="D240" s="10" t="s">
@@ -9897,7 +9891,7 @@
       <c r="B241" s="13">
         <v>40466</v>
       </c>
-      <c r="C241" s="19" t="s">
+      <c r="C241" s="17" t="s">
         <v>243</v>
       </c>
       <c r="D241" s="11" t="s">
@@ -9932,7 +9926,7 @@
       <c r="B242" s="12">
         <v>40560</v>
       </c>
-      <c r="C242" s="18" t="s">
+      <c r="C242" s="16" t="s">
         <v>243</v>
       </c>
       <c r="D242" s="10" t="s">
@@ -9967,7 +9961,7 @@
       <c r="B243" s="13">
         <v>40793</v>
       </c>
-      <c r="C243" s="19" t="s">
+      <c r="C243" s="17" t="s">
         <v>243</v>
       </c>
       <c r="D243" s="11" t="s">
@@ -10002,7 +9996,7 @@
       <c r="B244" s="12">
         <v>41333</v>
       </c>
-      <c r="C244" s="18" t="s">
+      <c r="C244" s="16" t="s">
         <v>243</v>
       </c>
       <c r="D244" s="10" t="s">
@@ -10037,7 +10031,7 @@
       <c r="B245" s="13">
         <v>41374</v>
       </c>
-      <c r="C245" s="19" t="s">
+      <c r="C245" s="17" t="s">
         <v>243</v>
       </c>
       <c r="D245" s="11" t="s">
@@ -10072,7 +10066,7 @@
       <c r="B246" s="12">
         <v>41617</v>
       </c>
-      <c r="C246" s="18" t="s">
+      <c r="C246" s="16" t="s">
         <v>243</v>
       </c>
       <c r="D246" s="10" t="s">
@@ -10107,7 +10101,7 @@
       <c r="B247" s="13">
         <v>39938</v>
       </c>
-      <c r="C247" s="19" t="s">
+      <c r="C247" s="17" t="s">
         <v>248</v>
       </c>
       <c r="D247" s="11" t="s">
@@ -10142,7 +10136,7 @@
       <c r="B248" s="12">
         <v>39979</v>
       </c>
-      <c r="C248" s="18" t="s">
+      <c r="C248" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D248" s="10" t="s">
@@ -10177,7 +10171,7 @@
       <c r="B249" s="13">
         <v>40222</v>
       </c>
-      <c r="C249" s="19" t="s">
+      <c r="C249" s="17" t="s">
         <v>248</v>
       </c>
       <c r="D249" s="11" t="s">
@@ -10212,7 +10206,7 @@
       <c r="B250" s="12">
         <v>40806</v>
       </c>
-      <c r="C250" s="18" t="s">
+      <c r="C250" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D250" s="10" t="s">
@@ -10247,7 +10241,7 @@
       <c r="B251" s="13">
         <v>40900</v>
       </c>
-      <c r="C251" s="19" t="s">
+      <c r="C251" s="17" t="s">
         <v>248</v>
       </c>
       <c r="D251" s="11" t="s">
@@ -10282,7 +10276,7 @@
       <c r="B252" s="12">
         <v>40994</v>
       </c>
-      <c r="C252" s="18" t="s">
+      <c r="C252" s="16" t="s">
         <v>248</v>
       </c>
       <c r="D252" s="10" t="s">
@@ -10317,7 +10311,7 @@
       <c r="B253" s="13">
         <v>41227</v>
       </c>
-      <c r="C253" s="19" t="s">
+      <c r="C253" s="17" t="s">
         <v>248</v>
       </c>
       <c r="D253" s="11" t="s">
@@ -10352,7 +10346,7 @@
       <c r="B254" s="12">
         <v>39832</v>
       </c>
-      <c r="C254" s="18" t="s">
+      <c r="C254" s="16" t="s">
         <v>254</v>
       </c>
       <c r="D254" s="10" t="s">
@@ -10387,7 +10381,7 @@
       <c r="B255" s="13">
         <v>40372</v>
       </c>
-      <c r="C255" s="19" t="s">
+      <c r="C255" s="17" t="s">
         <v>254</v>
       </c>
       <c r="D255" s="11" t="s">
@@ -10422,7 +10416,7 @@
       <c r="B256" s="12">
         <v>40413</v>
       </c>
-      <c r="C256" s="18" t="s">
+      <c r="C256" s="16" t="s">
         <v>254</v>
       </c>
       <c r="D256" s="10" t="s">
@@ -10457,7 +10451,7 @@
       <c r="B257" s="13">
         <v>40656</v>
       </c>
-      <c r="C257" s="19" t="s">
+      <c r="C257" s="17" t="s">
         <v>254</v>
       </c>
       <c r="D257" s="11" t="s">
@@ -10492,7 +10486,7 @@
       <c r="B258" s="12">
         <v>41240</v>
       </c>
-      <c r="C258" s="18" t="s">
+      <c r="C258" s="16" t="s">
         <v>254</v>
       </c>
       <c r="D258" s="10" t="s">
@@ -10527,7 +10521,7 @@
       <c r="B259" s="13">
         <v>41334</v>
       </c>
-      <c r="C259" s="19" t="s">
+      <c r="C259" s="17" t="s">
         <v>254</v>
       </c>
       <c r="D259" s="11" t="s">
@@ -10562,7 +10556,7 @@
       <c r="B260" s="12">
         <v>41428</v>
       </c>
-      <c r="C260" s="18" t="s">
+      <c r="C260" s="16" t="s">
         <v>254</v>
       </c>
       <c r="D260" s="10" t="s">
@@ -10597,7 +10591,7 @@
       <c r="B261" s="13">
         <v>39845</v>
       </c>
-      <c r="C261" s="19" t="s">
+      <c r="C261" s="17" t="s">
         <v>260</v>
       </c>
       <c r="D261" s="11" t="s">
@@ -10632,7 +10626,7 @@
       <c r="B262" s="12">
         <v>39939</v>
       </c>
-      <c r="C262" s="18" t="s">
+      <c r="C262" s="16" t="s">
         <v>260</v>
       </c>
       <c r="D262" s="10" t="s">
@@ -10667,7 +10661,7 @@
       <c r="B263" s="13">
         <v>40033</v>
       </c>
-      <c r="C263" s="19" t="s">
+      <c r="C263" s="17" t="s">
         <v>260</v>
       </c>
       <c r="D263" s="11" t="s">
@@ -10702,7 +10696,7 @@
       <c r="B264" s="12">
         <v>40266</v>
       </c>
-      <c r="C264" s="18" t="s">
+      <c r="C264" s="16" t="s">
         <v>260</v>
       </c>
       <c r="D264" s="10" t="s">
@@ -10737,7 +10731,7 @@
       <c r="B265" s="13">
         <v>40806</v>
       </c>
-      <c r="C265" s="19" t="s">
+      <c r="C265" s="17" t="s">
         <v>260</v>
       </c>
       <c r="D265" s="11" t="s">
@@ -10772,7 +10766,7 @@
       <c r="B266" s="12">
         <v>40847</v>
       </c>
-      <c r="C266" s="18" t="s">
+      <c r="C266" s="16" t="s">
         <v>260</v>
       </c>
       <c r="D266" s="10" t="s">
@@ -10807,7 +10801,7 @@
       <c r="B267" s="13">
         <v>41090</v>
       </c>
-      <c r="C267" s="19" t="s">
+      <c r="C267" s="17" t="s">
         <v>260</v>
       </c>
       <c r="D267" s="11" t="s">
@@ -10842,7 +10836,7 @@
       <c r="B268" s="12">
         <v>40279</v>
       </c>
-      <c r="C268" s="18" t="s">
+      <c r="C268" s="16" t="s">
         <v>265</v>
       </c>
       <c r="D268" s="10" t="s">
@@ -10877,7 +10871,7 @@
       <c r="B269" s="13">
         <v>40373</v>
       </c>
-      <c r="C269" s="19" t="s">
+      <c r="C269" s="17" t="s">
         <v>265</v>
       </c>
       <c r="D269" s="11" t="s">
@@ -10912,7 +10906,7 @@
       <c r="B270" s="12">
         <v>40467</v>
       </c>
-      <c r="C270" s="18" t="s">
+      <c r="C270" s="16" t="s">
         <v>265</v>
       </c>
       <c r="D270" s="10" t="s">
@@ -10947,7 +10941,7 @@
       <c r="B271" s="13">
         <v>40700</v>
       </c>
-      <c r="C271" s="19" t="s">
+      <c r="C271" s="17" t="s">
         <v>265</v>
       </c>
       <c r="D271" s="11" t="s">
@@ -10982,7 +10976,7 @@
       <c r="B272" s="12">
         <v>41240</v>
       </c>
-      <c r="C272" s="18" t="s">
+      <c r="C272" s="16" t="s">
         <v>265</v>
       </c>
       <c r="D272" s="10" t="s">
@@ -11017,7 +11011,7 @@
       <c r="B273" s="13">
         <v>41281</v>
       </c>
-      <c r="C273" s="19" t="s">
+      <c r="C273" s="17" t="s">
         <v>265</v>
       </c>
       <c r="D273" s="11" t="s">
@@ -11052,7 +11046,7 @@
       <c r="B274" s="12">
         <v>41524</v>
       </c>
-      <c r="C274" s="18" t="s">
+      <c r="C274" s="16" t="s">
         <v>265</v>
       </c>
       <c r="D274" s="10" t="s">
@@ -11087,7 +11081,7 @@
       <c r="B275" s="13">
         <v>39845</v>
       </c>
-      <c r="C275" s="19" t="s">
+      <c r="C275" s="17" t="s">
         <v>272</v>
       </c>
       <c r="D275" s="11" t="s">
@@ -11122,7 +11116,7 @@
       <c r="B276" s="12">
         <v>39886</v>
       </c>
-      <c r="C276" s="18" t="s">
+      <c r="C276" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D276" s="10" t="s">
@@ -11157,7 +11151,7 @@
       <c r="B277" s="13">
         <v>40129</v>
       </c>
-      <c r="C277" s="19" t="s">
+      <c r="C277" s="17" t="s">
         <v>272</v>
       </c>
       <c r="D277" s="11" t="s">
@@ -11192,7 +11186,7 @@
       <c r="B278" s="12">
         <v>40713</v>
       </c>
-      <c r="C278" s="18" t="s">
+      <c r="C278" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D278" s="10" t="s">
@@ -11227,7 +11221,7 @@
       <c r="B279" s="13">
         <v>40807</v>
       </c>
-      <c r="C279" s="19" t="s">
+      <c r="C279" s="17" t="s">
         <v>272</v>
       </c>
       <c r="D279" s="11" t="s">
@@ -11262,7 +11256,7 @@
       <c r="B280" s="12">
         <v>40901</v>
       </c>
-      <c r="C280" s="18" t="s">
+      <c r="C280" s="16" t="s">
         <v>272</v>
       </c>
       <c r="D280" s="10" t="s">
@@ -11297,7 +11291,7 @@
       <c r="B281" s="13">
         <v>41134</v>
       </c>
-      <c r="C281" s="19" t="s">
+      <c r="C281" s="17" t="s">
         <v>272</v>
       </c>
       <c r="D281" s="11" t="s">
@@ -11332,7 +11326,7 @@
       <c r="B282" s="12">
         <v>40279</v>
       </c>
-      <c r="C282" s="18" t="s">
+      <c r="C282" s="16" t="s">
         <v>277</v>
       </c>
       <c r="D282" s="10" t="s">
@@ -11367,7 +11361,7 @@
       <c r="B283" s="13">
         <v>40320</v>
       </c>
-      <c r="C283" s="19" t="s">
+      <c r="C283" s="17" t="s">
         <v>277</v>
       </c>
       <c r="D283" s="11" t="s">
@@ -11402,7 +11396,7 @@
       <c r="B284" s="12">
         <v>40563</v>
       </c>
-      <c r="C284" s="18" t="s">
+      <c r="C284" s="16" t="s">
         <v>277</v>
       </c>
       <c r="D284" s="10" t="s">
@@ -11437,7 +11431,7 @@
       <c r="B285" s="13">
         <v>41147</v>
       </c>
-      <c r="C285" s="19" t="s">
+      <c r="C285" s="17" t="s">
         <v>277</v>
       </c>
       <c r="D285" s="11" t="s">
@@ -11472,7 +11466,7 @@
       <c r="B286" s="12">
         <v>41241</v>
       </c>
-      <c r="C286" s="18" t="s">
+      <c r="C286" s="16" t="s">
         <v>277</v>
       </c>
       <c r="D286" s="10" t="s">
@@ -11507,7 +11501,7 @@
       <c r="B287" s="13">
         <v>41335</v>
       </c>
-      <c r="C287" s="19" t="s">
+      <c r="C287" s="17" t="s">
         <v>277</v>
       </c>
       <c r="D287" s="11" t="s">
@@ -11542,7 +11536,7 @@
       <c r="B288" s="12">
         <v>41568</v>
       </c>
-      <c r="C288" s="18" t="s">
+      <c r="C288" s="16" t="s">
         <v>277</v>
       </c>
       <c r="D288" s="10" t="s">
@@ -11577,7 +11571,7 @@
       <c r="B289" s="13">
         <v>39846</v>
       </c>
-      <c r="C289" s="19" t="s">
+      <c r="C289" s="17" t="s">
         <v>283</v>
       </c>
       <c r="D289" s="11" t="s">
@@ -11612,7 +11606,7 @@
       <c r="B290" s="12">
         <v>39940</v>
       </c>
-      <c r="C290" s="18" t="s">
+      <c r="C290" s="16" t="s">
         <v>283</v>
       </c>
       <c r="D290" s="10" t="s">
@@ -11647,7 +11641,7 @@
       <c r="B291" s="13">
         <v>40173</v>
       </c>
-      <c r="C291" s="19" t="s">
+      <c r="C291" s="17" t="s">
         <v>283</v>
       </c>
       <c r="D291" s="11" t="s">
@@ -11682,7 +11676,7 @@
       <c r="B292" s="12">
         <v>40713</v>
       </c>
-      <c r="C292" s="18" t="s">
+      <c r="C292" s="16" t="s">
         <v>283</v>
       </c>
       <c r="D292" s="10" t="s">
@@ -11717,7 +11711,7 @@
       <c r="B293" s="13">
         <v>40754</v>
       </c>
-      <c r="C293" s="19" t="s">
+      <c r="C293" s="17" t="s">
         <v>283</v>
       </c>
       <c r="D293" s="11" t="s">
@@ -11752,7 +11746,7 @@
       <c r="B294" s="12">
         <v>40997</v>
       </c>
-      <c r="C294" s="18" t="s">
+      <c r="C294" s="16" t="s">
         <v>283</v>
       </c>
       <c r="D294" s="10" t="s">
@@ -11787,7 +11781,7 @@
       <c r="B295" s="13">
         <v>41581</v>
       </c>
-      <c r="C295" s="19" t="s">
+      <c r="C295" s="17" t="s">
         <v>283</v>
       </c>
       <c r="D295" s="11" t="s">
@@ -11822,7 +11816,7 @@
       <c r="B296" s="12">
         <v>40186</v>
       </c>
-      <c r="C296" s="18" t="s">
+      <c r="C296" s="16" t="s">
         <v>289</v>
       </c>
       <c r="D296" s="10" t="s">
@@ -11857,7 +11851,7 @@
       <c r="B297" s="13">
         <v>40280</v>
       </c>
-      <c r="C297" s="19" t="s">
+      <c r="C297" s="17" t="s">
         <v>289</v>
       </c>
       <c r="D297" s="11" t="s">
@@ -11892,7 +11886,7 @@
       <c r="B298" s="12">
         <v>40374</v>
       </c>
-      <c r="C298" s="18" t="s">
+      <c r="C298" s="16" t="s">
         <v>289</v>
       </c>
       <c r="D298" s="10" t="s">
@@ -11927,7 +11921,7 @@
       <c r="B299" s="13">
         <v>40607</v>
       </c>
-      <c r="C299" s="19" t="s">
+      <c r="C299" s="17" t="s">
         <v>289</v>
       </c>
       <c r="D299" s="11" t="s">
@@ -11962,7 +11956,7 @@
       <c r="B300" s="12">
         <v>41147</v>
       </c>
-      <c r="C300" s="18" t="s">
+      <c r="C300" s="16" t="s">
         <v>289</v>
       </c>
       <c r="D300" s="10" t="s">
@@ -11997,7 +11991,7 @@
       <c r="B301" s="13">
         <v>41188</v>
       </c>
-      <c r="C301" s="19" t="s">
+      <c r="C301" s="17" t="s">
         <v>289</v>
       </c>
       <c r="D301" s="11" t="s">
@@ -12032,7 +12026,7 @@
       <c r="B302" s="12">
         <v>41431</v>
       </c>
-      <c r="C302" s="18" t="s">
+      <c r="C302" s="16" t="s">
         <v>289</v>
       </c>
       <c r="D302" s="10" t="s">
@@ -12067,7 +12061,7 @@
       <c r="B303" s="13">
         <v>40036</v>
       </c>
-      <c r="C303" s="19" t="s">
+      <c r="C303" s="17" t="s">
         <v>295</v>
       </c>
       <c r="D303" s="11" t="s">
@@ -12102,7 +12096,7 @@
       <c r="B304" s="12">
         <v>40620</v>
       </c>
-      <c r="C304" s="18" t="s">
+      <c r="C304" s="16" t="s">
         <v>295</v>
       </c>
       <c r="D304" s="10" t="s">
@@ -12137,7 +12131,7 @@
       <c r="B305" s="13">
         <v>40714</v>
       </c>
-      <c r="C305" s="19" t="s">
+      <c r="C305" s="17" t="s">
         <v>295</v>
       </c>
       <c r="D305" s="11" t="s">
@@ -12172,7 +12166,7 @@
       <c r="B306" s="12">
         <v>40808</v>
       </c>
-      <c r="C306" s="18" t="s">
+      <c r="C306" s="16" t="s">
         <v>295</v>
       </c>
       <c r="D306" s="10" t="s">
@@ -12207,7 +12201,7 @@
       <c r="B307" s="13">
         <v>41041</v>
       </c>
-      <c r="C307" s="19" t="s">
+      <c r="C307" s="17" t="s">
         <v>295</v>
       </c>
       <c r="D307" s="11" t="s">
@@ -12242,7 +12236,7 @@
       <c r="B308" s="12">
         <v>41581</v>
       </c>
-      <c r="C308" s="18" t="s">
+      <c r="C308" s="16" t="s">
         <v>295</v>
       </c>
       <c r="D308" s="10" t="s">
@@ -12277,7 +12271,7 @@
       <c r="B309" s="13">
         <v>41622</v>
       </c>
-      <c r="C309" s="19" t="s">
+      <c r="C309" s="17" t="s">
         <v>295</v>
       </c>
       <c r="D309" s="11" t="s">
@@ -12312,7 +12306,7 @@
       <c r="B310" s="12">
         <v>40186</v>
       </c>
-      <c r="C310" s="18" t="s">
+      <c r="C310" s="16" t="s">
         <v>302</v>
       </c>
       <c r="D310" s="10" t="s">
@@ -12347,7 +12341,7 @@
       <c r="B311" s="13">
         <v>40227</v>
       </c>
-      <c r="C311" s="19" t="s">
+      <c r="C311" s="17" t="s">
         <v>302</v>
       </c>
       <c r="D311" s="11" t="s">
@@ -12382,7 +12376,7 @@
       <c r="B312" s="12">
         <v>40470</v>
       </c>
-      <c r="C312" s="18" t="s">
+      <c r="C312" s="16" t="s">
         <v>302</v>
       </c>
       <c r="D312" s="10" t="s">
@@ -12417,7 +12411,7 @@
       <c r="B313" s="13">
         <v>41054</v>
       </c>
-      <c r="C313" s="19" t="s">
+      <c r="C313" s="17" t="s">
         <v>302</v>
       </c>
       <c r="D313" s="11" t="s">
@@ -12452,7 +12446,7 @@
       <c r="B314" s="12">
         <v>41148</v>
       </c>
-      <c r="C314" s="18" t="s">
+      <c r="C314" s="16" t="s">
         <v>302</v>
       </c>
       <c r="D314" s="10" t="s">
@@ -12487,7 +12481,7 @@
       <c r="B315" s="13">
         <v>41242</v>
       </c>
-      <c r="C315" s="19" t="s">
+      <c r="C315" s="17" t="s">
         <v>302</v>
       </c>
       <c r="D315" s="11" t="s">
@@ -12522,7 +12516,7 @@
       <c r="B316" s="12">
         <v>41475</v>
       </c>
-      <c r="C316" s="18" t="s">
+      <c r="C316" s="16" t="s">
         <v>302</v>
       </c>
       <c r="D316" s="10" t="s">
@@ -12557,7 +12551,7 @@
       <c r="B317" s="13">
         <v>39847</v>
       </c>
-      <c r="C317" s="19" t="s">
+      <c r="C317" s="17" t="s">
         <v>308</v>
       </c>
       <c r="D317" s="11" t="s">
@@ -12592,7 +12586,7 @@
       <c r="B318" s="12">
         <v>40080</v>
       </c>
-      <c r="C318" s="18" t="s">
+      <c r="C318" s="16" t="s">
         <v>308</v>
       </c>
       <c r="D318" s="10" t="s">
@@ -12627,7 +12621,7 @@
       <c r="B319" s="13">
         <v>40620</v>
       </c>
-      <c r="C319" s="19" t="s">
+      <c r="C319" s="17" t="s">
         <v>308</v>
       </c>
       <c r="D319" s="11" t="s">
@@ -12662,7 +12656,7 @@
       <c r="B320" s="12">
         <v>40661</v>
       </c>
-      <c r="C320" s="18" t="s">
+      <c r="C320" s="16" t="s">
         <v>308</v>
       </c>
       <c r="D320" s="10" t="s">
@@ -12697,7 +12691,7 @@
       <c r="B321" s="13">
         <v>40904</v>
       </c>
-      <c r="C321" s="19" t="s">
+      <c r="C321" s="17" t="s">
         <v>308</v>
       </c>
       <c r="D321" s="11" t="s">
@@ -12732,7 +12726,7 @@
       <c r="B322" s="12">
         <v>41488</v>
       </c>
-      <c r="C322" s="18" t="s">
+      <c r="C322" s="16" t="s">
         <v>308</v>
       </c>
       <c r="D322" s="10" t="s">
@@ -12767,7 +12761,7 @@
       <c r="B323" s="13">
         <v>41582</v>
       </c>
-      <c r="C323" s="19" t="s">
+      <c r="C323" s="17" t="s">
         <v>308</v>
       </c>
       <c r="D323" s="11" t="s">
@@ -12802,7 +12796,7 @@
       <c r="B324" s="12">
         <v>40093</v>
       </c>
-      <c r="C324" s="18" t="s">
+      <c r="C324" s="16" t="s">
         <v>314</v>
       </c>
       <c r="D324" s="10" t="s">
@@ -12837,7 +12831,7 @@
       <c r="B325" s="13">
         <v>40187</v>
       </c>
-      <c r="C325" s="19" t="s">
+      <c r="C325" s="17" t="s">
         <v>314</v>
       </c>
       <c r="D325" s="11" t="s">
@@ -12872,7 +12866,7 @@
       <c r="B326" s="12">
         <v>40281</v>
       </c>
-      <c r="C326" s="18" t="s">
+      <c r="C326" s="16" t="s">
         <v>314</v>
       </c>
       <c r="D326" s="10" t="s">
@@ -12907,7 +12901,7 @@
       <c r="B327" s="13">
         <v>40514</v>
       </c>
-      <c r="C327" s="19" t="s">
+      <c r="C327" s="17" t="s">
         <v>314</v>
       </c>
       <c r="D327" s="11" t="s">
@@ -12942,7 +12936,7 @@
       <c r="B328" s="12">
         <v>41054</v>
       </c>
-      <c r="C328" s="18" t="s">
+      <c r="C328" s="16" t="s">
         <v>314</v>
       </c>
       <c r="D328" s="10" t="s">
@@ -12977,7 +12971,7 @@
       <c r="B329" s="13">
         <v>41095</v>
       </c>
-      <c r="C329" s="19" t="s">
+      <c r="C329" s="17" t="s">
         <v>314</v>
       </c>
       <c r="D329" s="11" t="s">
@@ -13012,7 +13006,7 @@
       <c r="B330" s="12">
         <v>41338</v>
       </c>
-      <c r="C330" s="18" t="s">
+      <c r="C330" s="16" t="s">
         <v>314</v>
       </c>
       <c r="D330" s="10" t="s">
@@ -13047,7 +13041,7 @@
       <c r="B331" s="13">
         <v>39943</v>
       </c>
-      <c r="C331" s="19" t="s">
+      <c r="C331" s="17" t="s">
         <v>322</v>
       </c>
       <c r="D331" s="11" t="s">
@@ -13082,7 +13076,7 @@
       <c r="B332" s="12">
         <v>40527</v>
       </c>
-      <c r="C332" s="18" t="s">
+      <c r="C332" s="16" t="s">
         <v>322</v>
       </c>
       <c r="D332" s="10" t="s">
@@ -13117,7 +13111,7 @@
       <c r="B333" s="13">
         <v>40621</v>
       </c>
-      <c r="C333" s="19" t="s">
+      <c r="C333" s="17" t="s">
         <v>322</v>
       </c>
       <c r="D333" s="11" t="s">
@@ -13152,7 +13146,7 @@
       <c r="B334" s="12">
         <v>40715</v>
       </c>
-      <c r="C334" s="18" t="s">
+      <c r="C334" s="16" t="s">
         <v>322</v>
       </c>
       <c r="D334" s="10" t="s">
@@ -13187,7 +13181,7 @@
       <c r="B335" s="13">
         <v>40948</v>
       </c>
-      <c r="C335" s="19" t="s">
+      <c r="C335" s="17" t="s">
         <v>322</v>
       </c>
       <c r="D335" s="11" t="s">
@@ -13222,7 +13216,7 @@
       <c r="B336" s="12">
         <v>41488</v>
       </c>
-      <c r="C336" s="18" t="s">
+      <c r="C336" s="16" t="s">
         <v>322</v>
       </c>
       <c r="D336" s="10" t="s">
@@ -13257,7 +13251,7 @@
       <c r="B337" s="13">
         <v>41529</v>
       </c>
-      <c r="C337" s="19" t="s">
+      <c r="C337" s="17" t="s">
         <v>322</v>
       </c>
       <c r="D337" s="11" t="s">
@@ -13292,7 +13286,7 @@
       <c r="B338" s="12">
         <v>40093</v>
       </c>
-      <c r="C338" s="18" t="s">
+      <c r="C338" s="16" t="s">
         <v>330</v>
       </c>
       <c r="D338" s="10" t="s">
@@ -13327,7 +13321,7 @@
       <c r="B339" s="13">
         <v>40134</v>
       </c>
-      <c r="C339" s="19" t="s">
+      <c r="C339" s="17" t="s">
         <v>330</v>
       </c>
       <c r="D339" s="11" t="s">
@@ -13362,7 +13356,7 @@
       <c r="B340" s="12">
         <v>40377</v>
       </c>
-      <c r="C340" s="18" t="s">
+      <c r="C340" s="16" t="s">
         <v>330</v>
       </c>
       <c r="D340" s="10" t="s">
@@ -13397,7 +13391,7 @@
       <c r="B341" s="13">
         <v>40961</v>
       </c>
-      <c r="C341" s="19" t="s">
+      <c r="C341" s="17" t="s">
         <v>330</v>
       </c>
       <c r="D341" s="11" t="s">
@@ -13432,7 +13426,7 @@
       <c r="B342" s="12">
         <v>41055</v>
       </c>
-      <c r="C342" s="18" t="s">
+      <c r="C342" s="16" t="s">
         <v>330</v>
       </c>
       <c r="D342" s="10" t="s">
@@ -13467,7 +13461,7 @@
       <c r="B343" s="13">
         <v>41149</v>
       </c>
-      <c r="C343" s="19" t="s">
+      <c r="C343" s="17" t="s">
         <v>330</v>
       </c>
       <c r="D343" s="11" t="s">
@@ -13502,7 +13496,7 @@
       <c r="B344" s="12">
         <v>41382</v>
       </c>
-      <c r="C344" s="18" t="s">
+      <c r="C344" s="16" t="s">
         <v>330</v>
       </c>
       <c r="D344" s="10" t="s">
@@ -13537,7 +13531,7 @@
       <c r="B345" s="13">
         <v>39987</v>
       </c>
-      <c r="C345" s="19" t="s">
+      <c r="C345" s="17" t="s">
         <v>337</v>
       </c>
       <c r="D345" s="11" t="s">
@@ -13572,7 +13566,7 @@
       <c r="B346" s="12">
         <v>40527</v>
       </c>
-      <c r="C346" s="18" t="s">
+      <c r="C346" s="16" t="s">
         <v>337</v>
       </c>
       <c r="D346" s="10" t="s">
@@ -13607,7 +13601,7 @@
       <c r="B347" s="13">
         <v>40568</v>
       </c>
-      <c r="C347" s="19" t="s">
+      <c r="C347" s="17" t="s">
         <v>337</v>
       </c>
       <c r="D347" s="11" t="s">
@@ -13642,7 +13636,7 @@
       <c r="B348" s="12">
         <v>40811</v>
       </c>
-      <c r="C348" s="18" t="s">
+      <c r="C348" s="16" t="s">
         <v>337</v>
       </c>
       <c r="D348" s="10" t="s">
@@ -13677,7 +13671,7 @@
       <c r="B349" s="13">
         <v>41395</v>
       </c>
-      <c r="C349" s="19" t="s">
+      <c r="C349" s="17" t="s">
         <v>337</v>
       </c>
       <c r="D349" s="11" t="s">
@@ -13712,7 +13706,7 @@
       <c r="B350" s="12">
         <v>41489</v>
       </c>
-      <c r="C350" s="18" t="s">
+      <c r="C350" s="16" t="s">
         <v>337</v>
       </c>
       <c r="D350" s="10" t="s">
@@ -13747,7 +13741,7 @@
       <c r="B351" s="13">
         <v>41583</v>
       </c>
-      <c r="C351" s="19" t="s">
+      <c r="C351" s="17" t="s">
         <v>337</v>
       </c>
       <c r="D351" s="11" t="s">
@@ -13782,7 +13776,7 @@
       <c r="B352" s="12">
         <v>40000</v>
       </c>
-      <c r="C352" s="18" t="s">
+      <c r="C352" s="16" t="s">
         <v>344</v>
       </c>
       <c r="D352" s="10" t="s">
@@ -13817,7 +13811,7 @@
       <c r="B353" s="13">
         <v>40094</v>
       </c>
-      <c r="C353" s="19" t="s">
+      <c r="C353" s="17" t="s">
         <v>344</v>
       </c>
       <c r="D353" s="11" t="s">
@@ -13852,7 +13846,7 @@
       <c r="B354" s="12">
         <v>40188</v>
       </c>
-      <c r="C354" s="18" t="s">
+      <c r="C354" s="16" t="s">
         <v>344</v>
       </c>
       <c r="D354" s="10" t="s">
@@ -13887,7 +13881,7 @@
       <c r="B355" s="13">
         <v>40421</v>
       </c>
-      <c r="C355" s="19" t="s">
+      <c r="C355" s="17" t="s">
         <v>344</v>
       </c>
       <c r="D355" s="11" t="s">
@@ -13922,7 +13916,7 @@
       <c r="B356" s="12">
         <v>40961</v>
       </c>
-      <c r="C356" s="18" t="s">
+      <c r="C356" s="16" t="s">
         <v>344</v>
       </c>
       <c r="D356" s="10" t="s">
@@ -13957,7 +13951,7 @@
       <c r="B357" s="13">
         <v>41002</v>
       </c>
-      <c r="C357" s="19" t="s">
+      <c r="C357" s="17" t="s">
         <v>344</v>
       </c>
       <c r="D357" s="11" t="s">
@@ -13992,7 +13986,7 @@
       <c r="B358" s="12">
         <v>41245</v>
       </c>
-      <c r="C358" s="18" t="s">
+      <c r="C358" s="16" t="s">
         <v>344</v>
       </c>
       <c r="D358" s="10" t="s">
@@ -14027,7 +14021,7 @@
       <c r="B359" s="13">
         <v>39850</v>
       </c>
-      <c r="C359" s="19" t="s">
+      <c r="C359" s="17" t="s">
         <v>351</v>
       </c>
       <c r="D359" s="11" t="s">
@@ -14062,7 +14056,7 @@
       <c r="B360" s="12">
         <v>40434</v>
       </c>
-      <c r="C360" s="18" t="s">
+      <c r="C360" s="16" t="s">
         <v>351</v>
       </c>
       <c r="D360" s="10" t="s">
@@ -14097,7 +14091,7 @@
       <c r="B361" s="13">
         <v>40528</v>
       </c>
-      <c r="C361" s="19" t="s">
+      <c r="C361" s="17" t="s">
         <v>351</v>
       </c>
       <c r="D361" s="11" t="s">
@@ -14132,7 +14126,7 @@
       <c r="B362" s="12">
         <v>40622</v>
       </c>
-      <c r="C362" s="18" t="s">
+      <c r="C362" s="16" t="s">
         <v>351</v>
       </c>
       <c r="D362" s="10" t="s">
@@ -14167,7 +14161,7 @@
       <c r="B363" s="13">
         <v>40855</v>
       </c>
-      <c r="C363" s="19" t="s">
+      <c r="C363" s="17" t="s">
         <v>351</v>
       </c>
       <c r="D363" s="11" t="s">
@@ -14202,7 +14196,7 @@
       <c r="B364" s="12">
         <v>41395</v>
       </c>
-      <c r="C364" s="18" t="s">
+      <c r="C364" s="16" t="s">
         <v>351</v>
       </c>
       <c r="D364" s="10" t="s">
@@ -14237,7 +14231,7 @@
       <c r="B365" s="13">
         <v>41436</v>
       </c>
-      <c r="C365" s="19" t="s">
+      <c r="C365" s="17" t="s">
         <v>351</v>
       </c>
       <c r="D365" s="11" t="s">
@@ -14272,7 +14266,7 @@
       <c r="B366" s="12">
         <v>40000</v>
       </c>
-      <c r="C366" s="18" t="s">
+      <c r="C366" s="16" t="s">
         <v>358</v>
       </c>
       <c r="D366" s="10" t="s">
@@ -14307,7 +14301,7 @@
       <c r="B367" s="13">
         <v>40041</v>
       </c>
-      <c r="C367" s="19" t="s">
+      <c r="C367" s="17" t="s">
         <v>358</v>
       </c>
       <c r="D367" s="11" t="s">
@@ -14342,7 +14336,7 @@
       <c r="B368" s="12">
         <v>40284</v>
       </c>
-      <c r="C368" s="18" t="s">
+      <c r="C368" s="16" t="s">
         <v>358</v>
       </c>
       <c r="D368" s="10" t="s">
@@ -14377,7 +14371,7 @@
       <c r="B369" s="13">
         <v>40868</v>
       </c>
-      <c r="C369" s="19" t="s">
+      <c r="C369" s="17" t="s">
         <v>358</v>
       </c>
       <c r="D369" s="11" t="s">
@@ -14412,7 +14406,7 @@
       <c r="B370" s="12">
         <v>40962</v>
       </c>
-      <c r="C370" s="18" t="s">
+      <c r="C370" s="16" t="s">
         <v>358</v>
       </c>
       <c r="D370" s="10" t="s">
@@ -14447,7 +14441,7 @@
       <c r="B371" s="13">
         <v>41056</v>
       </c>
-      <c r="C371" s="19" t="s">
+      <c r="C371" s="17" t="s">
         <v>358</v>
       </c>
       <c r="D371" s="11" t="s">
@@ -14482,7 +14476,7 @@
       <c r="B372" s="12">
         <v>41289</v>
       </c>
-      <c r="C372" s="18" t="s">
+      <c r="C372" s="16" t="s">
         <v>358</v>
       </c>
       <c r="D372" s="10" t="s">
@@ -14517,7 +14511,7 @@
       <c r="B373" s="13">
         <v>39894</v>
       </c>
-      <c r="C373" s="19" t="s">
+      <c r="C373" s="17" t="s">
         <v>363</v>
       </c>
       <c r="D373" s="11" t="s">
@@ -14552,7 +14546,7 @@
       <c r="B374" s="12">
         <v>40434</v>
       </c>
-      <c r="C374" s="18" t="s">
+      <c r="C374" s="16" t="s">
         <v>363</v>
       </c>
       <c r="D374" s="10" t="s">
@@ -14587,7 +14581,7 @@
       <c r="B375" s="13">
         <v>40475</v>
       </c>
-      <c r="C375" s="19" t="s">
+      <c r="C375" s="17" t="s">
         <v>363</v>
       </c>
       <c r="D375" s="11" t="s">
@@ -14622,7 +14616,7 @@
       <c r="B376" s="12">
         <v>40718</v>
       </c>
-      <c r="C376" s="18" t="s">
+      <c r="C376" s="16" t="s">
         <v>363</v>
       </c>
       <c r="D376" s="10" t="s">
@@ -14657,7 +14651,7 @@
       <c r="B377" s="13">
         <v>41302</v>
       </c>
-      <c r="C377" s="19" t="s">
+      <c r="C377" s="17" t="s">
         <v>363</v>
       </c>
       <c r="D377" s="11" t="s">
@@ -14692,7 +14686,7 @@
       <c r="B378" s="12">
         <v>41396</v>
       </c>
-      <c r="C378" s="18" t="s">
+      <c r="C378" s="16" t="s">
         <v>363</v>
       </c>
       <c r="D378" s="10" t="s">
@@ -14727,7 +14721,7 @@
       <c r="B379" s="13">
         <v>41490</v>
       </c>
-      <c r="C379" s="19" t="s">
+      <c r="C379" s="17" t="s">
         <v>363</v>
       </c>
       <c r="D379" s="11" t="s">
@@ -14762,7 +14756,7 @@
       <c r="B380" s="12">
         <v>39907</v>
       </c>
-      <c r="C380" s="18" t="s">
+      <c r="C380" s="16" t="s">
         <v>369</v>
       </c>
       <c r="D380" s="10" t="s">
@@ -14797,7 +14791,7 @@
       <c r="B381" s="13">
         <v>40001</v>
       </c>
-      <c r="C381" s="19" t="s">
+      <c r="C381" s="17" t="s">
         <v>369</v>
       </c>
       <c r="D381" s="11" t="s">
@@ -14832,7 +14826,7 @@
       <c r="B382" s="12">
         <v>40095</v>
       </c>
-      <c r="C382" s="18" t="s">
+      <c r="C382" s="16" t="s">
         <v>369</v>
       </c>
       <c r="D382" s="10" t="s">
@@ -14867,7 +14861,7 @@
       <c r="B383" s="13">
         <v>40328</v>
       </c>
-      <c r="C383" s="19" t="s">
+      <c r="C383" s="17" t="s">
         <v>369</v>
       </c>
       <c r="D383" s="11" t="s">
@@ -14902,7 +14896,7 @@
       <c r="B384" s="12">
         <v>40868</v>
       </c>
-      <c r="C384" s="18" t="s">
+      <c r="C384" s="16" t="s">
         <v>369</v>
       </c>
       <c r="D384" s="10" t="s">
@@ -14937,7 +14931,7 @@
       <c r="B385" s="13">
         <v>40909</v>
       </c>
-      <c r="C385" s="19" t="s">
+      <c r="C385" s="17" t="s">
         <v>369</v>
       </c>
       <c r="D385" s="11" t="s">
@@ -14972,7 +14966,7 @@
       <c r="B386" s="12">
         <v>41152</v>
       </c>
-      <c r="C386" s="18" t="s">
+      <c r="C386" s="16" t="s">
         <v>369</v>
       </c>
       <c r="D386" s="10" t="s">
@@ -15007,7 +15001,7 @@
       <c r="B387" s="13">
         <v>40341</v>
       </c>
-      <c r="C387" s="19" t="s">
+      <c r="C387" s="17" t="s">
         <v>377</v>
       </c>
       <c r="D387" s="11" t="s">
@@ -15042,7 +15036,7 @@
       <c r="B388" s="12">
         <v>40435</v>
       </c>
-      <c r="C388" s="18" t="s">
+      <c r="C388" s="16" t="s">
         <v>377</v>
       </c>
       <c r="D388" s="10" t="s">
@@ -15077,7 +15071,7 @@
       <c r="B389" s="13">
         <v>40529</v>
       </c>
-      <c r="C389" s="19" t="s">
+      <c r="C389" s="17" t="s">
         <v>377</v>
       </c>
       <c r="D389" s="11" t="s">
@@ -15112,7 +15106,7 @@
       <c r="B390" s="12">
         <v>40762</v>
       </c>
-      <c r="C390" s="18" t="s">
+      <c r="C390" s="16" t="s">
         <v>377</v>
       </c>
       <c r="D390" s="10" t="s">
@@ -15147,7 +15141,7 @@
       <c r="B391" s="13">
         <v>41302</v>
       </c>
-      <c r="C391" s="19" t="s">
+      <c r="C391" s="17" t="s">
         <v>377</v>
       </c>
       <c r="D391" s="11" t="s">
@@ -15182,7 +15176,7 @@
       <c r="B392" s="12">
         <v>41343</v>
       </c>
-      <c r="C392" s="18" t="s">
+      <c r="C392" s="16" t="s">
         <v>377</v>
       </c>
       <c r="D392" s="10" t="s">
@@ -15217,7 +15211,7 @@
       <c r="B393" s="13">
         <v>41586</v>
       </c>
-      <c r="C393" s="19" t="s">
+      <c r="C393" s="17" t="s">
         <v>377</v>
       </c>
       <c r="D393" s="11" t="s">
@@ -15252,7 +15246,7 @@
       <c r="B394" s="12">
         <v>39907</v>
       </c>
-      <c r="C394" s="18" t="s">
+      <c r="C394" s="16" t="s">
         <v>384</v>
       </c>
       <c r="D394" s="10" t="s">
@@ -15287,7 +15281,7 @@
       <c r="B395" s="13">
         <v>39948</v>
       </c>
-      <c r="C395" s="19" t="s">
+      <c r="C395" s="17" t="s">
         <v>384</v>
       </c>
       <c r="D395" s="11" t="s">
@@ -15322,7 +15316,7 @@
       <c r="B396" s="12">
         <v>40191</v>
       </c>
-      <c r="C396" s="18" t="s">
+      <c r="C396" s="16" t="s">
         <v>384</v>
       </c>
       <c r="D396" s="10" t="s">
@@ -15357,7 +15351,7 @@
       <c r="B397" s="13">
         <v>40775</v>
       </c>
-      <c r="C397" s="19" t="s">
+      <c r="C397" s="17" t="s">
         <v>384</v>
       </c>
       <c r="D397" s="11" t="s">
@@ -15392,7 +15386,7 @@
       <c r="B398" s="12">
         <v>40869</v>
       </c>
-      <c r="C398" s="18" t="s">
+      <c r="C398" s="16" t="s">
         <v>384</v>
       </c>
       <c r="D398" s="10" t="s">
@@ -15427,7 +15421,7 @@
       <c r="B399" s="13">
         <v>40963</v>
       </c>
-      <c r="C399" s="19" t="s">
+      <c r="C399" s="17" t="s">
         <v>384</v>
       </c>
       <c r="D399" s="11" t="s">
@@ -15462,7 +15456,7 @@
       <c r="B400" s="12">
         <v>41196</v>
       </c>
-      <c r="C400" s="18" t="s">
+      <c r="C400" s="16" t="s">
         <v>384</v>
       </c>
       <c r="D400" s="10" t="s">
@@ -15497,7 +15491,7 @@
       <c r="B401" s="13">
         <v>40341</v>
       </c>
-      <c r="C401" s="19" t="s">
+      <c r="C401" s="17" t="s">
         <v>390</v>
       </c>
       <c r="D401" s="11" t="s">
@@ -15532,7 +15526,7 @@
       <c r="B402" s="12">
         <v>40382</v>
       </c>
-      <c r="C402" s="18" t="s">
+      <c r="C402" s="16" t="s">
         <v>390</v>
       </c>
       <c r="D402" s="10" t="s">
@@ -15567,7 +15561,7 @@
       <c r="B403" s="13">
         <v>40625</v>
       </c>
-      <c r="C403" s="19" t="s">
+      <c r="C403" s="17" t="s">
         <v>390</v>
       </c>
       <c r="D403" s="11" t="s">
@@ -15602,7 +15596,7 @@
       <c r="B404" s="12">
         <v>41209</v>
       </c>
-      <c r="C404" s="18" t="s">
+      <c r="C404" s="16" t="s">
         <v>390</v>
       </c>
       <c r="D404" s="10" t="s">
@@ -15637,7 +15631,7 @@
       <c r="B405" s="13">
         <v>41303</v>
       </c>
-      <c r="C405" s="19" t="s">
+      <c r="C405" s="17" t="s">
         <v>390</v>
       </c>
       <c r="D405" s="11" t="s">
@@ -15672,7 +15666,7 @@
       <c r="B406" s="12">
         <v>41397</v>
       </c>
-      <c r="C406" s="18" t="s">
+      <c r="C406" s="16" t="s">
         <v>390</v>
       </c>
       <c r="D406" s="10" t="s">
@@ -15707,7 +15701,7 @@
       <c r="B407" s="13">
         <v>41630</v>
       </c>
-      <c r="C407" s="19" t="s">
+      <c r="C407" s="17" t="s">
         <v>390</v>
       </c>
       <c r="D407" s="11" t="s">
@@ -15742,7 +15736,7 @@
       <c r="B408" s="12">
         <v>39908</v>
       </c>
-      <c r="C408" s="18" t="s">
+      <c r="C408" s="16" t="s">
         <v>397</v>
       </c>
       <c r="D408" s="10" t="s">
@@ -15777,7 +15771,7 @@
       <c r="B409" s="13">
         <v>40002</v>
       </c>
-      <c r="C409" s="19" t="s">
+      <c r="C409" s="17" t="s">
         <v>397</v>
       </c>
       <c r="D409" s="11" t="s">
@@ -15812,7 +15806,7 @@
       <c r="B410" s="12">
         <v>40235</v>
       </c>
-      <c r="C410" s="18" t="s">
+      <c r="C410" s="16" t="s">
         <v>397</v>
       </c>
       <c r="D410" s="10" t="s">
@@ -15847,7 +15841,7 @@
       <c r="B411" s="13">
         <v>40775</v>
       </c>
-      <c r="C411" s="19" t="s">
+      <c r="C411" s="17" t="s">
         <v>397</v>
       </c>
       <c r="D411" s="11" t="s">
@@ -15882,7 +15876,7 @@
       <c r="B412" s="12">
         <v>40816</v>
       </c>
-      <c r="C412" s="18" t="s">
+      <c r="C412" s="16" t="s">
         <v>397</v>
       </c>
       <c r="D412" s="10" t="s">
@@ -15917,7 +15911,7 @@
       <c r="B413" s="13">
         <v>41059</v>
       </c>
-      <c r="C413" s="19" t="s">
+      <c r="C413" s="17" t="s">
         <v>397</v>
       </c>
       <c r="D413" s="11" t="s">
